--- a/experiment/data.FF.gm.p.xlsx
+++ b/experiment/data.FF.gm.p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29176FED-6A6A-4F2C-81D9-EBCC4C83E2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0DB46-7540-4BEF-BDE8-5BA8F6507FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="5" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="Janssens1966" sheetId="30" r:id="rId1"/>
@@ -39,25 +39,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t>Q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gev2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gm.p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="180" formatCode="0.00000_);[Red]\(0.00000\)"/>
-    <numFmt numFmtId="181" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,22 +159,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -512,7 +500,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -523,22 +511,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -885,7 +873,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -895,21 +883,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1067,21 +1055,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1364,13 +1352,13 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1392,13 +1380,13 @@
         <v>3.74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1402,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1426,21 +1414,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1560,18 +1548,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1833,7 +1821,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1845,21 +1833,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/experiment/data.FF.gm.p.xlsx
+++ b/experiment/data.FF.gm.p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0DB46-7540-4BEF-BDE8-5BA8F6507FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96382689-FBD6-4E64-BA8D-EA913595A5EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="6" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="Janssens1966" sheetId="30" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Hanson1973" sheetId="5" r:id="rId4"/>
     <sheet name="Walker1994" sheetId="9" r:id="rId5"/>
     <sheet name="Bartel1973" sheetId="31" r:id="rId6"/>
+    <sheet name="Arrington2007" sheetId="32" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Berger1971!$A$1:$C$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1820,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9869076E-160E-4301-8DB8-75D159982D49}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2041,4 +2042,692 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96962062-4DF6-465C-85E4-0B4477D164E6}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B3">
+        <v>2.6089552309965831</v>
+      </c>
+      <c r="C3">
+        <v>0.4105188355191311</v>
+      </c>
+      <c r="D3">
+        <v>0.4105188355191311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B4">
+        <v>2.621139723402603</v>
+      </c>
+      <c r="C4">
+        <v>8.2576556326708017E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.2576556326708017E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B5">
+        <v>2.5040017844132696</v>
+      </c>
+      <c r="C5">
+        <v>4.992238604811345E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.992238604811345E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.03</v>
+      </c>
+      <c r="B6">
+        <v>2.5272835692546409</v>
+      </c>
+      <c r="C6">
+        <v>0.13369150112028622</v>
+      </c>
+      <c r="D6">
+        <v>0.13369150112028622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B7">
+        <v>2.478545696217842</v>
+      </c>
+      <c r="C7">
+        <v>3.271177060998167E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.271177060998167E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B8">
+        <v>2.5361663116828979</v>
+      </c>
+      <c r="C8">
+        <v>6.7398120487636062E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.7398120487636062E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B9">
+        <v>2.4062290853193531</v>
+      </c>
+      <c r="C9">
+        <v>2.2053016056898349E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.2053016056898349E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="B10">
+        <v>2.3740225495318743</v>
+      </c>
+      <c r="C10">
+        <v>2.3931678926732605E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.3931678926732605E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="B11">
+        <v>2.3162956639797336</v>
+      </c>
+      <c r="C11">
+        <v>3.5526007116253581E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.5526007116253581E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B12">
+        <v>2.2991252688845085</v>
+      </c>
+      <c r="C12">
+        <v>3.7120085067761995E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.7120085067761995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B13">
+        <v>2.2051442500005636</v>
+      </c>
+      <c r="C13">
+        <v>1.800117755102501E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.800117755102501E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B14">
+        <v>2.1068602901145788</v>
+      </c>
+      <c r="C14">
+        <v>1.5095211904608037E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.5095211904608037E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.115</v>
+      </c>
+      <c r="B15">
+        <v>2.0229952041017847</v>
+      </c>
+      <c r="C15">
+        <v>1.4479515775779647E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.4479515775779647E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="B16">
+        <v>1.9206189005081542</v>
+      </c>
+      <c r="C16">
+        <v>1.5662539453685256E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.5662539453685256E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="B17">
+        <v>1.7721751498018634</v>
+      </c>
+      <c r="C17">
+        <v>1.2697263099910996E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.2697263099910996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B18">
+        <v>1.6714952102626293</v>
+      </c>
+      <c r="C18">
+        <v>1.0223212295184277E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.0223212295184277E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="B19">
+        <v>1.5466875820729833</v>
+      </c>
+      <c r="C19">
+        <v>1.8958376899770989E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.8958376899770989E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="B20">
+        <v>1.4161952218366343</v>
+      </c>
+      <c r="C20">
+        <v>1.1655927751741848E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.1655927751741848E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="B21">
+        <v>1.3432504443034361</v>
+      </c>
+      <c r="C21">
+        <v>9.5848655556820123E-3</v>
+      </c>
+      <c r="D21">
+        <v>9.5848655556820123E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.35</v>
+      </c>
+      <c r="B22">
+        <v>1.234208108950398</v>
+      </c>
+      <c r="C22">
+        <v>1.6289041031832662E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.6289041031832662E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.39</v>
+      </c>
+      <c r="B23">
+        <v>1.1553877900727023</v>
+      </c>
+      <c r="C23">
+        <v>9.3082601415726256E-3</v>
+      </c>
+      <c r="D23">
+        <v>9.3082601415726256E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="B24">
+        <v>1.0903860945667472</v>
+      </c>
+      <c r="C24">
+        <v>1.521974608567743E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.521974608567743E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="B25">
+        <v>1.000961761529241</v>
+      </c>
+      <c r="C25">
+        <v>8.0479337610391225E-3</v>
+      </c>
+      <c r="D25">
+        <v>8.0479337610391225E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.9149175209815249</v>
+      </c>
+      <c r="C26">
+        <v>8.2673269968210079E-3</v>
+      </c>
+      <c r="D26">
+        <v>8.2673269968210079E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="B27">
+        <v>0.84669074651867859</v>
+      </c>
+      <c r="C27">
+        <v>5.8856357752043202E-3</v>
+      </c>
+      <c r="D27">
+        <v>5.8856357752043202E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.622</v>
+      </c>
+      <c r="B28">
+        <v>0.79907016635878547</v>
+      </c>
+      <c r="C28">
+        <v>5.5546089021961259E-3</v>
+      </c>
+      <c r="D28">
+        <v>5.5546089021961259E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="B29">
+        <v>0.731559104201295</v>
+      </c>
+      <c r="C29">
+        <v>7.1933048594030984E-3</v>
+      </c>
+      <c r="D29">
+        <v>7.1933048594030984E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B30">
+        <v>0.64833615652349597</v>
+      </c>
+      <c r="C30">
+        <v>3.1750056636801966E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.1750056636801966E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="B31">
+        <v>0.60222978351401046</v>
+      </c>
+      <c r="C31">
+        <v>4.0340751048785397E-3</v>
+      </c>
+      <c r="D31">
+        <v>4.0340751048785397E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="B32">
+        <v>0.51572820896310534</v>
+      </c>
+      <c r="C32">
+        <v>8.3898368922227676E-4</v>
+      </c>
+      <c r="D32">
+        <v>8.3898368922227676E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.02</v>
+      </c>
+      <c r="B33">
+        <v>0.49580659598354604</v>
+      </c>
+      <c r="C33">
+        <v>2.8224284401340378E-3</v>
+      </c>
+      <c r="D33">
+        <v>2.8224284401340378E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.17</v>
+      </c>
+      <c r="B34">
+        <v>0.42183650205161238</v>
+      </c>
+      <c r="C34">
+        <v>1.9916737585061964E-3</v>
+      </c>
+      <c r="D34">
+        <v>1.9916737585061964E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.33</v>
+      </c>
+      <c r="B35">
+        <v>0.35758438681237814</v>
+      </c>
+      <c r="C35">
+        <v>3.3830121741946851E-3</v>
+      </c>
+      <c r="D35">
+        <v>3.3830121741946851E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.52</v>
+      </c>
+      <c r="B36">
+        <v>0.30405941162046518</v>
+      </c>
+      <c r="C36">
+        <v>1.6986559308405876E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.6986559308405876E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.74</v>
+      </c>
+      <c r="B37">
+        <v>0.25260819176787169</v>
+      </c>
+      <c r="C37">
+        <v>9.3819198428178921E-4</v>
+      </c>
+      <c r="D37">
+        <v>9.3819198428178921E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.83</v>
+      </c>
+      <c r="B38">
+        <v>0.23480575310624302</v>
+      </c>
+      <c r="C38">
+        <v>1.7457676810873086E-3</v>
+      </c>
+      <c r="D38">
+        <v>1.7457676810873086E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B39">
+        <v>0.19583159805313188</v>
+      </c>
+      <c r="C39">
+        <v>1.0930135705291082E-3</v>
+      </c>
+      <c r="D39">
+        <v>1.0930135705291082E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.5</v>
+      </c>
+      <c r="B40">
+        <v>0.14715314011768621</v>
+      </c>
+      <c r="C40">
+        <v>6.8316221038851538E-4</v>
+      </c>
+      <c r="D40">
+        <v>6.8316221038851538E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.69</v>
+      </c>
+      <c r="B41">
+        <v>0.13104435957960531</v>
+      </c>
+      <c r="C41">
+        <v>1.0960959444390776E-3</v>
+      </c>
+      <c r="D41">
+        <v>1.0960959444390776E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2.9</v>
+      </c>
+      <c r="B42">
+        <v>0.11656574303293223</v>
+      </c>
+      <c r="C42">
+        <v>7.5621890753524153E-4</v>
+      </c>
+      <c r="D42">
+        <v>7.5621890753524153E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3.09</v>
+      </c>
+      <c r="B43">
+        <v>0.10481059019347816</v>
+      </c>
+      <c r="C43">
+        <v>9.7498223435793648E-4</v>
+      </c>
+      <c r="D43">
+        <v>9.7498223435793648E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.24</v>
+      </c>
+      <c r="B44">
+        <v>9.6911203207653368E-2</v>
+      </c>
+      <c r="C44">
+        <v>9.0233894979193079E-4</v>
+      </c>
+      <c r="D44">
+        <v>9.0233894979193079E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3.71</v>
+      </c>
+      <c r="B45">
+        <v>7.6964527854104875E-2</v>
+      </c>
+      <c r="C45">
+        <v>3.6032082328700781E-4</v>
+      </c>
+      <c r="D45">
+        <v>3.6032082328700781E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B46">
+        <v>6.4417383922318397E-2</v>
+      </c>
+      <c r="C46">
+        <v>4.2419726007171098E-4</v>
+      </c>
+      <c r="D46">
+        <v>4.2419726007171098E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5.01</v>
+      </c>
+      <c r="B47">
+        <v>4.5009430973025934E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.1515024365691173E-4</v>
+      </c>
+      <c r="D47">
+        <v>2.1515024365691173E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5.85</v>
+      </c>
+      <c r="B48">
+        <v>3.3599023873578021E-2</v>
+      </c>
+      <c r="C48">
+        <v>2.2900989981990868E-4</v>
+      </c>
+      <c r="D48">
+        <v>2.2900989981990868E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>